--- a/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_1_sites_202202.xlsx
+++ b/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_1_sites_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3084,10 +3084,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Fev 2022) 1. TAS1 FL - Formulaire Site</t>
-  </si>
-  <si>
-    <t>sn_lf_tas1_1_sites_202202</t>
+    <t>(Fev 2022) 1. TAS1 FL - Formulaire Site V2</t>
+  </si>
+  <si>
+    <t>sn_lf_tas1_1_sites_202202_2</t>
   </si>
   <si>
     <t>French</t>
@@ -3098,12 +3098,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3135,8 +3135,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3151,37 +3166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3197,29 +3182,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3227,9 +3189,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3237,13 +3230,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3254,6 +3240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3272,6 +3266,28 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3303,13 +3319,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,13 +3355,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3345,37 +3457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,91 +3469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,6 +3482,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3536,6 +3552,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3547,45 +3572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3624,147 +3610,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3849,7 +3871,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
@@ -3894,11 +3916,13 @@
     <cellStyle name="Title" xfId="41" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="42" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="48" builtinId="40"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4680,7 +4704,7 @@
   <sheetPr/>
   <dimension ref="A1:G1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1600" sqref="A1600:A1704"/>
@@ -33580,8 +33604,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
